--- a/input/curva_usd.xlsx
+++ b/input/curva_usd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarodiaz/Documents/help-qc_financial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarodiaz/qcf_repos/qcfinancial-help/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA1C84FF-716C-F744-96F7-A079DCB7A44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C51C0-4079-AB46-A2ED-453E19C6BF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rows (1)" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
-  <si>
-    <t>LIBORUSD3MBBG</t>
-  </si>
-  <si>
-    <t>curva</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>plazo</t>
   </si>
@@ -40,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -518,53 +509,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,9 +570,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -620,7 +610,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -726,7 +716,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -868,425 +858,251 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>1.53619663317E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1.53619663317E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="B3">
         <v>1.15214747488E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="B4">
         <v>1.5536120479800001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="B5">
         <v>1.58497634543E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="B6">
         <v>1.65952943883E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>60</v>
       </c>
-      <c r="D7">
+      <c r="B7">
         <v>1.7698049964900001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>91</v>
       </c>
-      <c r="D8">
+      <c r="B8">
         <v>1.8010414406899999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>123</v>
       </c>
-      <c r="D9">
+      <c r="B9">
         <v>1.7711412193100001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>152</v>
       </c>
-      <c r="D10">
+      <c r="B10">
         <v>1.75415974031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>182</v>
       </c>
-      <c r="D11">
+      <c r="B11">
         <v>1.7394041441699998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>213</v>
       </c>
-      <c r="D12">
+      <c r="B12">
         <v>1.7287714162199999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>244</v>
       </c>
-      <c r="D13">
+      <c r="B13">
         <v>1.7182725569499999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>276</v>
       </c>
-      <c r="D14">
+      <c r="B14">
         <v>1.70272390899E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>305</v>
       </c>
-      <c r="D15">
+      <c r="B15">
         <v>1.6917071000099999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>335</v>
       </c>
-      <c r="D16">
+      <c r="B16">
         <v>1.68202921492E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>367</v>
       </c>
-      <c r="D17">
+      <c r="B17">
         <v>1.6721578275399999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>549</v>
       </c>
-      <c r="D18">
+      <c r="B18">
         <v>1.6207313852800002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>731</v>
       </c>
-      <c r="D19">
+      <c r="B19">
         <v>1.5946941664699999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1096</v>
       </c>
-      <c r="D20">
+      <c r="B20">
         <v>1.5788240887499999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1461</v>
       </c>
-      <c r="D21">
+      <c r="B21">
         <v>1.5905977127499998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1827</v>
       </c>
-      <c r="D22">
+      <c r="B22">
         <v>1.6190263346799998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2558</v>
       </c>
-      <c r="D23">
+      <c r="B23">
         <v>1.7027719205399999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>3653</v>
       </c>
-      <c r="D24">
+      <c r="B24">
         <v>1.8533196909199998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>4385</v>
       </c>
-      <c r="D25">
+      <c r="B25">
         <v>1.95472591628E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>5479</v>
       </c>
-      <c r="D26">
+      <c r="B26">
         <v>2.0893221380999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>7305</v>
       </c>
-      <c r="D27">
+      <c r="B27">
         <v>2.2831121702800002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>9132</v>
       </c>
-      <c r="D28">
+      <c r="B28">
         <v>2.4306172441000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>10958</v>
       </c>
-      <c r="D29">
+      <c r="B29">
         <v>2.5575843025699999E-2</v>
       </c>
     </row>
